--- a/biology/Botanique/Xanthosia_rotundifolia/Xanthosia_rotundifolia.xlsx
+++ b/biology/Botanique/Xanthosia_rotundifolia/Xanthosia_rotundifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xanthosia rotundifolia est une espèce de la famille des Apiaceae.
 Cette espèce est parfois également placée dans les Araliaceae ou les Mackinlayaceae. Le nom informel de cette espèce, croix du sud, est dérivé du nom commun de la constellation Crux.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fleurs, de couleur blanche, symétriques et au contour cruciforme, rappellent les étoiles distinctives du sud[1]. Son port est celui d'un arbuste compris entre 0,35 m et 0,8 m de hauteur.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs, de couleur blanche, symétriques et au contour cruciforme, rappellent les étoiles distinctives du sud. Son port est celui d'un arbuste compris entre 0,35 m et 0,8 m de hauteur.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve uniquement dans les régions méridionales de l'Australie  du Sud-Ouest, dans une variété de sols sur granite ou latérite.
-Il a été décrit pour la première fois par de Candolle en 1829[2].
+Il a été décrit pour la première fois par de Candolle en 1829.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Xanthosia rotundifolia DC.[3].
-Xanthosia rotundifolia a pour synonymes[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Xanthosia rotundifolia DC..
+Xanthosia rotundifolia a pour synonymes :
 Cruciella candida Lesch. ex DC.
 Cruciella candida Leschen.
 Leucolaena rotundifolia var. pubescens Benth.
